--- a/monografia/extras.xlsx
+++ b/monografia/extras.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>ECU - Engine Control Unit</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>MAC - Media Access Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL - Uniform Resource Locator </t>
   </si>
 </sst>
 </file>
@@ -715,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +942,11 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/monografia/extras.xlsx
+++ b/monografia/extras.xlsx
@@ -64,9 +64,6 @@
     <t>ISO - International Starndardization Organization</t>
   </si>
   <si>
-    <t>PID - Códigos de Parâmetros</t>
-  </si>
-  <si>
     <t>CI - Cicuinto Integrado</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">URL - Uniform Resource Locator </t>
+  </si>
+  <si>
+    <t>PID - Códigos de parâmetros</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -731,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -751,22 +751,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -781,22 +781,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -826,27 +826,27 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -866,27 +866,27 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -896,17 +896,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -921,32 +921,32 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -974,106 +974,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1100,27 +1100,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="D2" s="12">
         <v>85.8</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="13">
         <v>19.8</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="13">
         <v>19.8</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="13">
         <v>33</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="13">
         <v>19.8</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8">
         <v>14</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
